--- a/cbrunner/Parameters/Parameters_RemovedFate.xlsx
+++ b/cbrunner/Parameters/Parameters_RemovedFate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDD1E48-DA5D-4124-A8E4-9AD0BCFC814C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1235604-6DF4-4017-9CAD-2FD8F14352A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{56D488E3-3B41-4640-A5CC-930066266AEC}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{56D488E3-3B41-4640-A5CC-930066266AEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="47">
   <si>
     <t>Name</t>
   </si>
@@ -165,22 +165,16 @@
     <t>GFS22</t>
   </si>
   <si>
-    <t>Coast QA</t>
-  </si>
-  <si>
-    <t>Coast Source</t>
-  </si>
-  <si>
-    <t>Interior Source</t>
-  </si>
-  <si>
-    <t>Interior QA</t>
-  </si>
-  <si>
-    <t>GFS22 QA</t>
-  </si>
-  <si>
     <t>GFS22 Source</t>
+  </si>
+  <si>
+    <t>Energy Production</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>QA</t>
   </si>
 </sst>
 </file>
@@ -214,7 +208,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -253,13 +246,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -279,13 +269,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -295,6 +278,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -609,869 +615,1062 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14EC811D-9681-4F94-80A1-B488F3E72EF9}">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="47.5546875" customWidth="1"/>
     <col min="2" max="2" width="9.5546875" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="10" customWidth="1"/>
     <col min="10" max="10" width="13.21875" customWidth="1"/>
+    <col min="11" max="11" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="6">
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
         <f>SUM(B2:B13)</f>
         <v>0.99950000000000006</v>
       </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="6">
+      <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
         <f>SUM(E2:E13)</f>
         <v>0.99950000000000006</v>
       </c>
-      <c r="H2" s="4">
-        <f>E2*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="12">
+      <c r="G2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="3">
+        <f t="shared" ref="H2:H7" si="0">E2*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="8">
         <f>SUM(H2:H13)</f>
         <v>0.99975000000000003</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="K2" s="3">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5">
+        <f>SUM(K2:K13)</f>
+        <v>1</v>
+      </c>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <f>0.1371</f>
         <v>0.1371</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <f>0.1371+$B$11/6</f>
         <v>0.15006666666666665</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="4">
-        <f>E3*0.5</f>
+      <c r="H3" s="3">
+        <f t="shared" si="0"/>
         <v>7.5033333333333327E-2</v>
       </c>
-      <c r="I3" s="13"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="I3" s="9"/>
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>2.4E-2</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <f>0.024+$B$11/6</f>
         <v>3.6966666666666669E-2</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="4">
-        <f>E4*0.5</f>
+      <c r="H4" s="3">
+        <f t="shared" si="0"/>
         <v>1.8483333333333334E-2</v>
       </c>
-      <c r="I4" s="13"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="I4" s="9"/>
+      <c r="K4" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>0.68700000000000006</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <f>0.687+$B$11/6</f>
         <v>0.69996666666666674</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="6"/>
+      <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="4">
-        <f>E5*0.5</f>
+      <c r="H5" s="3">
+        <f t="shared" si="0"/>
         <v>0.34998333333333337</v>
       </c>
-      <c r="I5" s="13"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="I5" s="9"/>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>4.4200000000000003E-2</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <f>0.0442+$B$11/6</f>
         <v>5.7166666666666671E-2</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="6"/>
+      <c r="G6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="4">
-        <f>E6*0.5</f>
+      <c r="H6" s="3">
+        <f t="shared" si="0"/>
         <v>2.8583333333333336E-2</v>
       </c>
-      <c r="I6" s="13"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="I6" s="9"/>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6"/>
+      <c r="D7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <f>0.0156+$B$11/6</f>
         <v>2.8566666666666664E-2</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="6"/>
+      <c r="G7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="4">
-        <f>E7*0.5</f>
+      <c r="H7" s="3">
+        <f t="shared" si="0"/>
         <v>1.4283333333333332E-2</v>
       </c>
-      <c r="I7" s="13"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="I7" s="9"/>
+      <c r="K7" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="4">
-        <v>0</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="4">
-        <v>0</v>
-      </c>
-      <c r="I8" s="13"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="4">
-        <v>0</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="4">
-        <v>0</v>
-      </c>
-      <c r="I9" s="13"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="4">
-        <v>0</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="4">
-        <v>0</v>
-      </c>
-      <c r="I10" s="13"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>7.7799999999999994E-2</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5" t="s">
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="4">
-        <v>0</v>
-      </c>
-      <c r="I11" s="13"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>1.38E-2</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="6"/>
+      <c r="D12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <f>0.0138+$B$11/6</f>
         <v>2.6766666666666668E-2</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="6"/>
+      <c r="G12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <f>E12*0.5</f>
         <v>1.3383333333333334E-2</v>
       </c>
-      <c r="I12" s="13"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="I12" s="9"/>
+      <c r="K12" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="4">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0</v>
-      </c>
-      <c r="H13" s="4">
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
         <v>0.5</v>
       </c>
-      <c r="I13" s="13"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="I13" s="9"/>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="4">
-        <v>0</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="6">
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5">
         <f>SUM(B14:B25)</f>
         <v>1</v>
       </c>
-      <c r="E14" s="4">
-        <v>0</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" s="6">
+      <c r="D14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
         <f>SUM(E14:E25)</f>
         <v>1</v>
       </c>
-      <c r="H14" s="4">
+      <c r="G14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="3">
         <f>E14*0.5</f>
         <v>0</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="8">
         <f>SUM(H14:H25)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="5">
+        <f>SUM(K14:K25)</f>
+        <v>1</v>
+      </c>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>0.45</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="4">
+      <c r="C15" s="6"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="3">
         <v>0.45</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="4">
-        <f t="shared" ref="H15:H24" si="0">E15*0.5</f>
+      <c r="F15" s="6"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="3">
+        <f t="shared" ref="H15:H24" si="1">E15*0.5</f>
         <v>0.22500000000000001</v>
       </c>
-      <c r="I15" s="13"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+      <c r="I15" s="9"/>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>0.25</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="4">
+      <c r="C16" s="6"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="3">
         <v>0.25</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="4">
-        <f t="shared" si="0"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="3">
+        <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="I16" s="13"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+      <c r="I16" s="9"/>
+      <c r="K16" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>0.25</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="4">
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="3">
         <v>0.25</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="4">
-        <f t="shared" si="0"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="3">
+        <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="I17" s="13"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+      <c r="I17" s="9"/>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="4">
-        <v>0</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="4">
-        <v>0</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="13"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+      <c r="B18" s="3">
+        <v>0</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="4">
-        <v>0</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="4">
-        <v>0</v>
-      </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="13"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="K19" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="4">
-        <v>0</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="4">
-        <v>0</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="13"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
+      <c r="B20" s="3">
+        <v>0</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="4">
-        <v>0</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="4">
-        <v>0</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="13"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="4">
-        <v>0</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="4">
-        <v>0</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="13"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
+      <c r="B22" s="3">
+        <v>0</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="4">
-        <v>0</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="4">
-        <v>0</v>
-      </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="13"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
+      <c r="B23" s="3">
+        <v>0</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>0.05</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="4">
+      <c r="C24" s="6"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="3">
         <v>0.05</v>
       </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="4">
-        <f t="shared" si="0"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="3">
+        <f t="shared" si="1"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="I24" s="13"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
+      <c r="I24" s="9"/>
+      <c r="K24" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="L24" s="6"/>
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="4">
-        <v>0</v>
-      </c>
-      <c r="E25" s="4">
-        <v>0</v>
-      </c>
-      <c r="H25" s="4">
+      <c r="B25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
         <v>0.5</v>
       </c>
-      <c r="I25" s="13"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+      <c r="I25" s="9"/>
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="4">
-        <v>0</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="6">
+      <c r="B26" s="3">
+        <v>0</v>
+      </c>
+      <c r="C26" s="5">
         <f>SUM(B26:B37)</f>
         <v>0.99950000000000006</v>
       </c>
-      <c r="E26" s="4">
-        <v>0</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G26" s="6">
+      <c r="D26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="5">
         <f>SUM(E26:E37)</f>
         <v>0.99950000000000006</v>
       </c>
-      <c r="H26" s="4">
+      <c r="G26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" s="3">
         <f>E26*0.5</f>
         <v>0</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I26" s="8">
         <f>SUM(H26:H37)</f>
         <v>0.99975000000000003</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="5">
+        <f>SUM(K26:K37)</f>
+        <v>1</v>
+      </c>
+      <c r="M26" s="4"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <f>0.1371</f>
         <v>0.1371</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="4">
+      <c r="C27" s="6"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="3">
         <f>0.1371+$B$11/6</f>
         <v>0.15006666666666665</v>
       </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="4">
-        <f t="shared" ref="H27:H36" si="1">E27*0.5</f>
+      <c r="F27" s="6"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="3">
+        <f t="shared" ref="H27:H36" si="2">E27*0.5</f>
         <v>7.5033333333333327E-2</v>
       </c>
-      <c r="I27" s="13"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="I27" s="9"/>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="3">
         <v>2.4E-2</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="4">
+      <c r="C28" s="6"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="3">
         <f>0.024+$B$11/6</f>
         <v>3.6966666666666669E-2</v>
       </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="4">
-        <f t="shared" si="1"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="3">
+        <f t="shared" si="2"/>
         <v>1.8483333333333334E-2</v>
       </c>
-      <c r="I28" s="13"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+      <c r="I28" s="9"/>
+      <c r="K28" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="3">
         <v>0.68700000000000006</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="4">
+      <c r="C29" s="6"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="3">
         <f>0.687+$B$11/6</f>
         <v>0.69996666666666674</v>
       </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="4">
-        <f t="shared" si="1"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="3">
+        <f t="shared" si="2"/>
         <v>0.34998333333333337</v>
       </c>
-      <c r="I29" s="13"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+      <c r="I29" s="9"/>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="6"/>
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="3">
         <v>4.4200000000000003E-2</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="4">
+      <c r="C30" s="6"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="3">
         <f>0.0442+$B$11/6</f>
         <v>5.7166666666666671E-2</v>
       </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="4">
-        <f t="shared" si="1"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="3">
+        <f t="shared" si="2"/>
         <v>2.8583333333333336E-2</v>
       </c>
-      <c r="I30" s="13"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="I30" s="9"/>
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="6"/>
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="3">
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="4">
+      <c r="C31" s="6"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="3">
         <f>0.0156+$B$11/6</f>
         <v>2.8566666666666664E-2</v>
       </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="4">
-        <f t="shared" si="1"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="3">
+        <f t="shared" si="2"/>
         <v>1.4283333333333332E-2</v>
       </c>
-      <c r="I31" s="13"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+      <c r="I31" s="9"/>
+      <c r="K31" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="L31" s="6"/>
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="4">
-        <v>0</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="4">
-        <v>0</v>
-      </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="13"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+      <c r="B32" s="3">
+        <v>0</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="6"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="6"/>
+      <c r="M32" s="4"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="4">
-        <v>0</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="4">
-        <v>0</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G33" s="7"/>
-      <c r="H33" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="13"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+      <c r="B33" s="3">
+        <v>0</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H33" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="6"/>
+      <c r="M33" s="4"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="4">
-        <v>0</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="4">
-        <v>0</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G34" s="7"/>
-      <c r="H34" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="13"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+      <c r="B34" s="3">
+        <v>0</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="6"/>
+      <c r="G34" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H34" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="6"/>
+      <c r="M34" s="4"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="3">
         <v>7.7799999999999994E-2</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="4">
-        <v>0</v>
-      </c>
-      <c r="F35" s="5"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="13"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+      <c r="C35" s="6"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="6"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="6"/>
+      <c r="M35" s="4"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="3">
         <v>1.38E-2</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="4">
+      <c r="C36" s="6"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="3">
         <f>0.0138+$B$11/6</f>
         <v>2.6766666666666668E-2</v>
       </c>
-      <c r="F36" s="5"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="4">
-        <f t="shared" si="1"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="3">
+        <f t="shared" si="2"/>
         <v>1.3383333333333334E-2</v>
       </c>
-      <c r="I36" s="13"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
+      <c r="I36" s="9"/>
+      <c r="K36" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="L36" s="6"/>
+      <c r="M36" s="4"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="4">
-        <v>0</v>
-      </c>
-      <c r="E37" s="4">
-        <v>0</v>
-      </c>
-      <c r="H37" s="4">
+      <c r="B37" s="3">
+        <v>0</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
+      <c r="H37" s="3">
         <v>0.5</v>
       </c>
-      <c r="I37" s="13"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I38" s="13"/>
+      <c r="I37" s="9"/>
+      <c r="K37" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I38" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cbrunner/Parameters/Parameters_RemovedFate.xlsx
+++ b/cbrunner/Parameters/Parameters_RemovedFate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1235604-6DF4-4017-9CAD-2FD8F14352A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64BC1CA-4F68-42A9-A373-511AE1350D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{56D488E3-3B41-4640-A5CC-930066266AEC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>QA</t>
+  </si>
+  <si>
+    <t>Pellets</t>
   </si>
 </sst>
 </file>
@@ -214,7 +217,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,6 +236,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -246,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -281,26 +290,29 @@
     <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -615,10 +627,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14EC811D-9681-4F94-80A1-B488F3E72EF9}">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -633,50 +648,60 @@
     <col min="9" max="9" width="9.6640625" style="10" customWidth="1"/>
     <col min="10" max="10" width="13.21875" customWidth="1"/>
     <col min="11" max="11" width="16.44140625" customWidth="1"/>
+    <col min="16" max="16" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N1" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -716,8 +741,16 @@
         <v>1</v>
       </c>
       <c r="M2" s="4"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N2" s="3">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5">
+        <f>SUM(N2:N13)</f>
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="P2" s="4"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -747,8 +780,14 @@
       </c>
       <c r="L3" s="5"/>
       <c r="M3" s="4"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N3" s="3">
+        <f>0.1371+$B$11/6</f>
+        <v>0.15006666666666665</v>
+      </c>
+      <c r="O3" s="5"/>
+      <c r="P3" s="4"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -777,8 +816,14 @@
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="4"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N4" s="3">
+        <f>0.024+$B$11/6</f>
+        <v>3.6966666666666669E-2</v>
+      </c>
+      <c r="O4" s="5"/>
+      <c r="P4" s="4"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -807,8 +852,14 @@
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N5" s="3">
+        <f>0.687+$B$11/6</f>
+        <v>0.69996666666666674</v>
+      </c>
+      <c r="O5" s="6"/>
+      <c r="P5" s="4"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -837,8 +888,14 @@
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N6" s="3">
+        <f>0.0442+$B$11/6</f>
+        <v>5.7166666666666671E-2</v>
+      </c>
+      <c r="O6" s="6"/>
+      <c r="P6" s="4"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -867,8 +924,14 @@
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="4"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N7" s="3">
+        <f>0.0156+$B$11/6</f>
+        <v>2.8566666666666664E-2</v>
+      </c>
+      <c r="O7" s="6"/>
+      <c r="P7" s="4"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -895,8 +958,13 @@
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="4"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="6"/>
+      <c r="P8" s="4"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -923,8 +991,13 @@
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="4"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="6"/>
+      <c r="P9" s="4"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -951,8 +1024,13 @@
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="4"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="6"/>
+      <c r="P10" s="4"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -979,8 +1057,13 @@
       </c>
       <c r="L11" s="6"/>
       <c r="M11" s="4"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="O11" s="6"/>
+      <c r="P11" s="4"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -1009,8 +1092,14 @@
       </c>
       <c r="L12" s="6"/>
       <c r="M12" s="4"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N12" s="3">
+        <f>0.0138+$B$11/6</f>
+        <v>2.6766666666666668E-2</v>
+      </c>
+      <c r="O12" s="6"/>
+      <c r="P12" s="4"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>39</v>
       </c>
@@ -1027,8 +1116,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>15</v>
       </c>
@@ -1068,8 +1160,16 @@
         <v>1</v>
       </c>
       <c r="M14" s="4"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="5">
+        <f>SUM(N14:N25)</f>
+        <v>1</v>
+      </c>
+      <c r="P14" s="4"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>16</v>
       </c>
@@ -1093,8 +1193,13 @@
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="4"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N15" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="O15" s="6"/>
+      <c r="P15" s="4"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>17</v>
       </c>
@@ -1118,8 +1223,13 @@
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="4"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N16" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="O16" s="6"/>
+      <c r="P16" s="4"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>18</v>
       </c>
@@ -1143,8 +1253,13 @@
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="4"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N17" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="O17" s="6"/>
+      <c r="P17" s="4"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>19</v>
       </c>
@@ -1168,8 +1283,13 @@
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="4"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="6"/>
+      <c r="P18" s="4"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>20</v>
       </c>
@@ -1193,8 +1313,13 @@
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="4"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N19" s="3">
+        <v>0</v>
+      </c>
+      <c r="O19" s="6"/>
+      <c r="P19" s="4"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>21</v>
       </c>
@@ -1218,8 +1343,13 @@
       </c>
       <c r="L20" s="6"/>
       <c r="M20" s="4"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="6"/>
+      <c r="P20" s="4"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>22</v>
       </c>
@@ -1247,8 +1377,13 @@
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="4"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="6"/>
+      <c r="P21" s="4"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>23</v>
       </c>
@@ -1276,8 +1411,13 @@
       </c>
       <c r="L22" s="6"/>
       <c r="M22" s="4"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="6"/>
+      <c r="P22" s="4"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>24</v>
       </c>
@@ -1301,8 +1441,13 @@
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="4"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="6"/>
+      <c r="P23" s="4"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>25</v>
       </c>
@@ -1326,8 +1471,13 @@
       </c>
       <c r="L24" s="6"/>
       <c r="M24" s="4"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N24" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="O24" s="6"/>
+      <c r="P24" s="4"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>40</v>
       </c>
@@ -1344,8 +1494,11 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
@@ -1385,8 +1538,16 @@
         <v>1</v>
       </c>
       <c r="M26" s="4"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="5">
+        <f>SUM(N26:N37)</f>
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="P26" s="4"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
@@ -1412,8 +1573,14 @@
       </c>
       <c r="L27" s="6"/>
       <c r="M27" s="4"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N27" s="3">
+        <f>0.1371+$B$11/6</f>
+        <v>0.15006666666666665</v>
+      </c>
+      <c r="O27" s="6"/>
+      <c r="P27" s="4"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
@@ -1438,8 +1605,14 @@
       </c>
       <c r="L28" s="6"/>
       <c r="M28" s="4"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N28" s="3">
+        <f>0.024+$B$11/6</f>
+        <v>3.6966666666666669E-2</v>
+      </c>
+      <c r="O28" s="6"/>
+      <c r="P28" s="4"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
@@ -1464,8 +1637,14 @@
       </c>
       <c r="L29" s="6"/>
       <c r="M29" s="4"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N29" s="3">
+        <f>0.687+$B$11/6</f>
+        <v>0.69996666666666674</v>
+      </c>
+      <c r="O29" s="6"/>
+      <c r="P29" s="4"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
@@ -1490,8 +1669,14 @@
       </c>
       <c r="L30" s="6"/>
       <c r="M30" s="4"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N30" s="3">
+        <f>0.0442+$B$11/6</f>
+        <v>5.7166666666666671E-2</v>
+      </c>
+      <c r="O30" s="6"/>
+      <c r="P30" s="4"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
@@ -1516,8 +1701,14 @@
       </c>
       <c r="L31" s="6"/>
       <c r="M31" s="4"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N31" s="3">
+        <f>0.0156+$B$11/6</f>
+        <v>2.8566666666666664E-2</v>
+      </c>
+      <c r="O31" s="6"/>
+      <c r="P31" s="4"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
@@ -1541,8 +1732,13 @@
       </c>
       <c r="L32" s="6"/>
       <c r="M32" s="4"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="6"/>
+      <c r="P32" s="4"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
@@ -1570,8 +1766,13 @@
       </c>
       <c r="L33" s="6"/>
       <c r="M33" s="4"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="6"/>
+      <c r="P33" s="4"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
@@ -1599,8 +1800,13 @@
       </c>
       <c r="L34" s="6"/>
       <c r="M34" s="4"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="6"/>
+      <c r="P34" s="4"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
@@ -1624,8 +1830,13 @@
       </c>
       <c r="L35" s="6"/>
       <c r="M35" s="4"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="6"/>
+      <c r="P35" s="4"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
@@ -1650,8 +1861,14 @@
       </c>
       <c r="L36" s="6"/>
       <c r="M36" s="4"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N36" s="3">
+        <f>0.0138+$B$11/6</f>
+        <v>2.6766666666666668E-2</v>
+      </c>
+      <c r="O36" s="6"/>
+      <c r="P36" s="4"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>41</v>
       </c>
@@ -1668,8 +1885,11 @@
       <c r="K37" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N37" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I38" s="9"/>
     </row>
   </sheetData>

--- a/cbrunner/Parameters/Parameters_RemovedFate.xlsx
+++ b/cbrunner/Parameters/Parameters_RemovedFate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64BC1CA-4F68-42A9-A373-511AE1350D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C145EB-66D4-4803-A502-F00AE24BCDAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{56D488E3-3B41-4640-A5CC-930066266AEC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="51">
   <si>
     <t>Name</t>
   </si>
@@ -177,7 +177,16 @@
     <t>QA</t>
   </si>
   <si>
-    <t>Pellets</t>
+    <t>BurnUneconomic</t>
+  </si>
+  <si>
+    <t>LeaveUneconomicStanding</t>
+  </si>
+  <si>
+    <t>UseUnecomicForPellets</t>
+  </si>
+  <si>
+    <t>Energy Production Pellets</t>
   </si>
 </sst>
 </file>
@@ -627,13 +636,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14EC811D-9681-4F94-80A1-B488F3E72EF9}">
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:W38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N6" sqref="N6"/>
+      <selection pane="bottomRight" activeCell="V37" sqref="V37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -648,10 +657,11 @@
     <col min="9" max="9" width="9.6640625" style="10" customWidth="1"/>
     <col min="10" max="10" width="13.21875" customWidth="1"/>
     <col min="11" max="11" width="16.44140625" customWidth="1"/>
-    <col min="16" max="16" width="18.77734375" customWidth="1"/>
+    <col min="16" max="19" width="8.77734375" customWidth="1"/>
+    <col min="22" max="22" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -700,8 +710,29 @@
       <c r="P1" s="20" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q1" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="T1" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="U1" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -746,11 +777,33 @@
       </c>
       <c r="O2" s="5">
         <f>SUM(N2:N13)</f>
-        <v>0.99950000000000006</v>
+        <v>1</v>
       </c>
       <c r="P2" s="4"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q2" s="3">
+        <v>0</v>
+      </c>
+      <c r="R2" s="5">
+        <f>SUM(Q2:Q13)</f>
+        <v>1</v>
+      </c>
+      <c r="S2" s="4"/>
+      <c r="T2" s="3">
+        <v>0</v>
+      </c>
+      <c r="U2" s="5">
+        <f>SUM(T2:T13)</f>
+        <v>1</v>
+      </c>
+      <c r="V2" s="3">
+        <v>0</v>
+      </c>
+      <c r="W2" s="5">
+        <f>SUM(V2:V13)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -781,13 +834,25 @@
       <c r="L3" s="5"/>
       <c r="M3" s="4"/>
       <c r="N3" s="3">
-        <f>0.1371+$B$11/6</f>
-        <v>0.15006666666666665</v>
+        <v>0</v>
       </c>
       <c r="O3" s="5"/>
       <c r="P3" s="4"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q3" s="3">
+        <v>0</v>
+      </c>
+      <c r="R3" s="5"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="3">
+        <v>0</v>
+      </c>
+      <c r="U3" s="5"/>
+      <c r="V3" s="3">
+        <v>0</v>
+      </c>
+      <c r="W3" s="5"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -817,13 +882,25 @@
       <c r="L4" s="5"/>
       <c r="M4" s="4"/>
       <c r="N4" s="3">
-        <f>0.024+$B$11/6</f>
-        <v>3.6966666666666669E-2</v>
+        <v>0</v>
       </c>
       <c r="O4" s="5"/>
       <c r="P4" s="4"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q4" s="3">
+        <v>0</v>
+      </c>
+      <c r="R4" s="5"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="U4" s="5"/>
+      <c r="V4" s="3">
+        <v>1</v>
+      </c>
+      <c r="W4" s="5"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -853,13 +930,25 @@
       <c r="L5" s="6"/>
       <c r="M5" s="4"/>
       <c r="N5" s="3">
-        <f>0.687+$B$11/6</f>
-        <v>0.69996666666666674</v>
+        <v>1</v>
       </c>
       <c r="O5" s="6"/>
       <c r="P5" s="4"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q5" s="3">
+        <v>1</v>
+      </c>
+      <c r="R5" s="6"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="U5" s="6"/>
+      <c r="V5" s="3">
+        <v>0</v>
+      </c>
+      <c r="W5" s="6"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -889,13 +978,25 @@
       <c r="L6" s="6"/>
       <c r="M6" s="4"/>
       <c r="N6" s="3">
-        <f>0.0442+$B$11/6</f>
-        <v>5.7166666666666671E-2</v>
+        <v>0</v>
       </c>
       <c r="O6" s="6"/>
       <c r="P6" s="4"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q6" s="3">
+        <v>0</v>
+      </c>
+      <c r="R6" s="6"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="3">
+        <v>0</v>
+      </c>
+      <c r="U6" s="6"/>
+      <c r="V6" s="3">
+        <v>0</v>
+      </c>
+      <c r="W6" s="6"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -925,13 +1026,25 @@
       <c r="L7" s="6"/>
       <c r="M7" s="4"/>
       <c r="N7" s="3">
-        <f>0.0156+$B$11/6</f>
-        <v>2.8566666666666664E-2</v>
+        <v>0</v>
       </c>
       <c r="O7" s="6"/>
       <c r="P7" s="4"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q7" s="3">
+        <v>0</v>
+      </c>
+      <c r="R7" s="6"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="3">
+        <v>0</v>
+      </c>
+      <c r="U7" s="6"/>
+      <c r="V7" s="3">
+        <v>0</v>
+      </c>
+      <c r="W7" s="6"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -963,8 +1076,21 @@
       </c>
       <c r="O8" s="6"/>
       <c r="P8" s="4"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="6"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="6"/>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="6"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -996,8 +1122,21 @@
       </c>
       <c r="O9" s="6"/>
       <c r="P9" s="4"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="6"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="6"/>
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="6"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -1029,8 +1168,21 @@
       </c>
       <c r="O10" s="6"/>
       <c r="P10" s="4"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="6"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="6"/>
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="6"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -1062,8 +1214,21 @@
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="4"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q11" s="3">
+        <v>0</v>
+      </c>
+      <c r="R11" s="6"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="3">
+        <v>0</v>
+      </c>
+      <c r="U11" s="6"/>
+      <c r="V11" s="3">
+        <v>0</v>
+      </c>
+      <c r="W11" s="6"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -1093,13 +1258,25 @@
       <c r="L12" s="6"/>
       <c r="M12" s="4"/>
       <c r="N12" s="3">
-        <f>0.0138+$B$11/6</f>
-        <v>2.6766666666666668E-2</v>
+        <v>0</v>
       </c>
       <c r="O12" s="6"/>
       <c r="P12" s="4"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="6"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+      <c r="U12" s="6"/>
+      <c r="V12" s="3">
+        <v>0</v>
+      </c>
+      <c r="W12" s="6"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>39</v>
       </c>
@@ -1119,8 +1296,17 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>15</v>
       </c>
@@ -1168,8 +1354,30 @@
         <v>1</v>
       </c>
       <c r="P14" s="4"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="5">
+        <f>SUM(Q14:Q25)</f>
+        <v>1</v>
+      </c>
+      <c r="S14" s="4"/>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="5">
+        <f>SUM(T14:T25)</f>
+        <v>1</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="5">
+        <f>SUM(V14:V25)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>16</v>
       </c>
@@ -1194,12 +1402,25 @@
       <c r="L15" s="6"/>
       <c r="M15" s="4"/>
       <c r="N15" s="3">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="O15" s="6"/>
       <c r="P15" s="4"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="6"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="6"/>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="6"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>17</v>
       </c>
@@ -1224,12 +1445,25 @@
       <c r="L16" s="6"/>
       <c r="M16" s="4"/>
       <c r="N16" s="3">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O16" s="6"/>
       <c r="P16" s="4"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q16" s="3">
+        <v>0</v>
+      </c>
+      <c r="R16" s="6"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="3">
+        <v>1</v>
+      </c>
+      <c r="U16" s="6"/>
+      <c r="V16" s="3">
+        <v>1</v>
+      </c>
+      <c r="W16" s="6"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>18</v>
       </c>
@@ -1254,12 +1488,25 @@
       <c r="L17" s="6"/>
       <c r="M17" s="4"/>
       <c r="N17" s="3">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="O17" s="6"/>
       <c r="P17" s="4"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q17" s="3">
+        <v>1</v>
+      </c>
+      <c r="R17" s="6"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="6"/>
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="6"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>19</v>
       </c>
@@ -1288,8 +1535,21 @@
       </c>
       <c r="O18" s="6"/>
       <c r="P18" s="4"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="6"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="6"/>
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="6"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>20</v>
       </c>
@@ -1318,8 +1578,21 @@
       </c>
       <c r="O19" s="6"/>
       <c r="P19" s="4"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q19" s="3">
+        <v>0</v>
+      </c>
+      <c r="R19" s="6"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="3">
+        <v>0</v>
+      </c>
+      <c r="U19" s="6"/>
+      <c r="V19" s="3">
+        <v>0</v>
+      </c>
+      <c r="W19" s="6"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>21</v>
       </c>
@@ -1348,8 +1621,21 @@
       </c>
       <c r="O20" s="6"/>
       <c r="P20" s="4"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="6"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="6"/>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="6"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>22</v>
       </c>
@@ -1382,8 +1668,21 @@
       </c>
       <c r="O21" s="6"/>
       <c r="P21" s="4"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="6"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="6"/>
+      <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="6"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>23</v>
       </c>
@@ -1416,8 +1715,21 @@
       </c>
       <c r="O22" s="6"/>
       <c r="P22" s="4"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="6"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="6"/>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="6"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>24</v>
       </c>
@@ -1446,8 +1758,21 @@
       </c>
       <c r="O23" s="6"/>
       <c r="P23" s="4"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="6"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="6"/>
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="6"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>25</v>
       </c>
@@ -1472,12 +1797,25 @@
       <c r="L24" s="6"/>
       <c r="M24" s="4"/>
       <c r="N24" s="3">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="O24" s="6"/>
       <c r="P24" s="4"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="6"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="6"/>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="6"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>40</v>
       </c>
@@ -1497,8 +1835,17 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
@@ -1543,11 +1890,33 @@
       </c>
       <c r="O26" s="5">
         <f>SUM(N26:N37)</f>
-        <v>0.99950000000000006</v>
+        <v>1</v>
       </c>
       <c r="P26" s="4"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="5">
+        <f>SUM(Q26:Q37)</f>
+        <v>1</v>
+      </c>
+      <c r="S26" s="4"/>
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="5">
+        <f>SUM(T26:T37)</f>
+        <v>1</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="5">
+        <f>SUM(V26:V37)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
@@ -1574,13 +1943,25 @@
       <c r="L27" s="6"/>
       <c r="M27" s="4"/>
       <c r="N27" s="3">
-        <f>0.1371+$B$11/6</f>
-        <v>0.15006666666666665</v>
+        <v>0</v>
       </c>
       <c r="O27" s="6"/>
       <c r="P27" s="4"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="6"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="6"/>
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="6"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
@@ -1606,13 +1987,25 @@
       <c r="L28" s="6"/>
       <c r="M28" s="4"/>
       <c r="N28" s="3">
-        <f>0.024+$B$11/6</f>
-        <v>3.6966666666666669E-2</v>
+        <v>0</v>
       </c>
       <c r="O28" s="6"/>
       <c r="P28" s="4"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="6"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="U28" s="6"/>
+      <c r="V28" s="3">
+        <v>1</v>
+      </c>
+      <c r="W28" s="6"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
@@ -1638,13 +2031,25 @@
       <c r="L29" s="6"/>
       <c r="M29" s="4"/>
       <c r="N29" s="3">
-        <f>0.687+$B$11/6</f>
-        <v>0.69996666666666674</v>
+        <v>1</v>
       </c>
       <c r="O29" s="6"/>
       <c r="P29" s="4"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q29" s="3">
+        <v>1</v>
+      </c>
+      <c r="R29" s="6"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="U29" s="6"/>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="6"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
@@ -1670,13 +2075,25 @@
       <c r="L30" s="6"/>
       <c r="M30" s="4"/>
       <c r="N30" s="3">
-        <f>0.0442+$B$11/6</f>
-        <v>5.7166666666666671E-2</v>
+        <v>0</v>
       </c>
       <c r="O30" s="6"/>
       <c r="P30" s="4"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="6"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="6"/>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="6"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
@@ -1702,13 +2119,25 @@
       <c r="L31" s="6"/>
       <c r="M31" s="4"/>
       <c r="N31" s="3">
-        <f>0.0156+$B$11/6</f>
-        <v>2.8566666666666664E-2</v>
+        <v>0</v>
       </c>
       <c r="O31" s="6"/>
       <c r="P31" s="4"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="6"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="6"/>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="6"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
@@ -1737,8 +2166,21 @@
       </c>
       <c r="O32" s="6"/>
       <c r="P32" s="4"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="6"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="6"/>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="6"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
@@ -1771,8 +2213,21 @@
       </c>
       <c r="O33" s="6"/>
       <c r="P33" s="4"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="6"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="6"/>
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="6"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
@@ -1805,8 +2260,21 @@
       </c>
       <c r="O34" s="6"/>
       <c r="P34" s="4"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="6"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="6"/>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="6"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
@@ -1835,8 +2303,21 @@
       </c>
       <c r="O35" s="6"/>
       <c r="P35" s="4"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="6"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="6"/>
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="6"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
@@ -1862,13 +2343,25 @@
       <c r="L36" s="6"/>
       <c r="M36" s="4"/>
       <c r="N36" s="3">
-        <f>0.0138+$B$11/6</f>
-        <v>2.6766666666666668E-2</v>
+        <v>0</v>
       </c>
       <c r="O36" s="6"/>
       <c r="P36" s="4"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q36" s="3">
+        <v>0</v>
+      </c>
+      <c r="R36" s="6"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="3">
+        <v>0</v>
+      </c>
+      <c r="U36" s="6"/>
+      <c r="V36" s="3">
+        <v>0</v>
+      </c>
+      <c r="W36" s="6"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>41</v>
       </c>
@@ -1888,8 +2381,17 @@
       <c r="N37" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q37" s="3">
+        <v>0</v>
+      </c>
+      <c r="T37" s="3">
+        <v>0</v>
+      </c>
+      <c r="V37" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="I38" s="9"/>
     </row>
   </sheetData>

--- a/cbrunner/Parameters/Parameters_RemovedFate.xlsx
+++ b/cbrunner/Parameters/Parameters_RemovedFate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698BE961-EFB3-4F8B-A567-497CFB7C2A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD9B32D-0077-4D40-936E-D199AD277169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{56D488E3-3B41-4640-A5CC-930066266AEC}"/>
   </bookViews>
@@ -649,10 +649,10 @@
   <dimension ref="A1:W38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R9" sqref="R9"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -672,7 +672,7 @@
     <col min="18" max="18" width="6.109375" customWidth="1"/>
     <col min="19" max="19" width="8.77734375" customWidth="1"/>
     <col min="21" max="21" width="6.77734375" customWidth="1"/>
-    <col min="22" max="22" width="18.77734375" customWidth="1"/>
+    <col min="22" max="22" width="10.77734375" customWidth="1"/>
     <col min="23" max="23" width="6.5546875" customWidth="1"/>
   </cols>
   <sheetData>

--- a/cbrunner/Parameters/Parameters_RemovedFate.xlsx
+++ b/cbrunner/Parameters/Parameters_RemovedFate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD9B32D-0077-4D40-936E-D199AD277169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD14E5B-2885-4546-B809-168D100C1BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{56D488E3-3B41-4640-A5CC-930066266AEC}"/>
   </bookViews>
@@ -57,9 +57,6 @@
     <t>Ghafghazi 2016</t>
   </si>
   <si>
-    <t>RemovedMerchToSawMill</t>
-  </si>
-  <si>
     <t>RemovedMerchToPlywoodMill</t>
   </si>
   <si>
@@ -90,9 +87,6 @@
     <t>RemovedNonMerchToPelletMill</t>
   </si>
   <si>
-    <t>RemovedNonMerchToSawMill</t>
-  </si>
-  <si>
     <t>RemovedNonMerchToPlywoodMill</t>
   </si>
   <si>
@@ -123,9 +117,6 @@
     <t>RemovedSnagStemToPelletMill</t>
   </si>
   <si>
-    <t>RemovedSnagStemToSawMill</t>
-  </si>
-  <si>
     <t>RemovedSnagStemToPlywoodMill</t>
   </si>
   <si>
@@ -187,6 +178,15 @@
   </si>
   <si>
     <t>Sawlogs and Pellets</t>
+  </si>
+  <si>
+    <t>RemovedMerchToLumberMill</t>
+  </si>
+  <si>
+    <t>RemovedNonMerchToLumberMill</t>
+  </si>
+  <si>
+    <t>RemovedSnagStemToLumberMill</t>
   </si>
 </sst>
 </file>
@@ -652,7 +652,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -681,70 +681,70 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="O1" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="17" t="s">
+      <c r="R1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="13" t="s">
+      <c r="T1" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="U1" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="V1" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="T1" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="U1" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="V1" s="14" t="s">
-        <v>47</v>
-      </c>
       <c r="W1" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
@@ -917,7 +917,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="B5" s="2">
         <v>0.68700000000000006</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2">
         <v>4.4200000000000003E-2</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2">
         <v>1.5599999999999999E-2</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -1107,7 +1107,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="2">
         <v>7.7799999999999994E-2</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2">
         <v>1.38E-2</v>
@@ -1293,7 +1293,7 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2">
         <v>0</v>
@@ -1394,7 +1394,7 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2">
         <v>0.45</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2">
         <v>0.25</v>
@@ -1480,7 +1480,7 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="B17" s="2">
         <v>0.25</v>
@@ -1523,7 +1523,7 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2">
         <v>0</v>
@@ -1566,7 +1566,7 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2">
         <v>0</v>
@@ -1609,7 +1609,7 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2">
         <v>0</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2">
         <v>0</v>
@@ -1699,7 +1699,7 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -1746,7 +1746,7 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2">
         <v>0</v>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2">
         <v>0.05</v>
@@ -1832,7 +1832,7 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2">
         <v>0</v>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2">
         <v>0</v>
@@ -1933,7 +1933,7 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2">
         <f>0.1371</f>
@@ -1978,7 +1978,7 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2">
         <v>2.4E-2</v>
@@ -2022,7 +2022,7 @@
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B29" s="2">
         <v>0.68700000000000006</v>
@@ -2066,7 +2066,7 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B30" s="2">
         <v>4.4200000000000003E-2</v>
@@ -2110,7 +2110,7 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B31" s="2">
         <v>1.5599999999999999E-2</v>
@@ -2154,7 +2154,7 @@
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B32" s="2">
         <v>0</v>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B33" s="2">
         <v>0</v>
@@ -2244,7 +2244,7 @@
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B34" s="2">
         <v>0</v>
@@ -2291,7 +2291,7 @@
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B35" s="2">
         <v>7.7799999999999994E-2</v>
@@ -2334,7 +2334,7 @@
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B36" s="2">
         <v>1.38E-2</v>
@@ -2378,7 +2378,7 @@
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B37" s="2">
         <v>0</v>

--- a/cbrunner/Parameters/Parameters_RemovedFate.xlsx
+++ b/cbrunner/Parameters/Parameters_RemovedFate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD14E5B-2885-4546-B809-168D100C1BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C027299-560B-4B32-A794-8B143BB9C5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{56D488E3-3B41-4640-A5CC-930066266AEC}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="14616" xr2:uid="{56D488E3-3B41-4640-A5CC-930066266AEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="54">
   <si>
     <t>Name</t>
   </si>
@@ -108,36 +108,6 @@
     <t>RemovedNonMerchToIPP</t>
   </si>
   <si>
-    <t>RemovedSnagStemToChipperMill</t>
-  </si>
-  <si>
-    <t>RemovedSnagStemToPulpMill</t>
-  </si>
-  <si>
-    <t>RemovedSnagStemToPelletMill</t>
-  </si>
-  <si>
-    <t>RemovedSnagStemToPlywoodMill</t>
-  </si>
-  <si>
-    <t>RemovedSnagStemToOSBMill</t>
-  </si>
-  <si>
-    <t>RemovedSnagStemToMDFMill</t>
-  </si>
-  <si>
-    <t>RemovedSnagStemToPolePostMill</t>
-  </si>
-  <si>
-    <t>RemovedSnagStemToShakeShingleMill</t>
-  </si>
-  <si>
-    <t>RemovedSnagStemToLogExport</t>
-  </si>
-  <si>
-    <t>RemovedSnagStemToIPP</t>
-  </si>
-  <si>
     <t>Coast</t>
   </si>
   <si>
@@ -150,9 +120,6 @@
     <t>RemovedNonMerchToFirewood</t>
   </si>
   <si>
-    <t>RemovedSnagStemToFirewood</t>
-  </si>
-  <si>
     <t>GFS22</t>
   </si>
   <si>
@@ -186,7 +153,49 @@
     <t>RemovedNonMerchToLumberMill</t>
   </si>
   <si>
-    <t>RemovedSnagStemToLumberMill</t>
+    <t>RemovedDeadStemToChipperMill</t>
+  </si>
+  <si>
+    <t>RemovedDeadStemToPulpMill</t>
+  </si>
+  <si>
+    <t>RemovedDeadStemToPelletMill</t>
+  </si>
+  <si>
+    <t>RemovedDeadStemToLumberMill</t>
+  </si>
+  <si>
+    <t>RemovedDeadStemToPlywoodMill</t>
+  </si>
+  <si>
+    <t>RemovedDeadStemToOSBMill</t>
+  </si>
+  <si>
+    <t>RemovedDeadStemToMDFMill</t>
+  </si>
+  <si>
+    <t>RemovedDeadStemToPolePostMill</t>
+  </si>
+  <si>
+    <t>RemovedDeadStemToShakeShingleMill</t>
+  </si>
+  <si>
+    <t>RemovedDeadStemToLogExport</t>
+  </si>
+  <si>
+    <t>RemovedDeadStemToIPP</t>
+  </si>
+  <si>
+    <t>RemovedDeadStemToFirewood</t>
+  </si>
+  <si>
+    <t>CT1</t>
+  </si>
+  <si>
+    <t>CT2</t>
+  </si>
+  <si>
+    <t>CT3</t>
   </si>
 </sst>
 </file>
@@ -226,7 +235,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,6 +260,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEC8EE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -264,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -332,6 +347,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -350,9 +368,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -390,7 +408,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -496,7 +514,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -638,7 +656,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -646,13 +664,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14EC811D-9681-4F94-80A1-B488F3E72EF9}">
-  <dimension ref="A1:W38"/>
+  <dimension ref="A1:Z38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -662,92 +680,102 @@
     <col min="3" max="3" width="11.6640625" customWidth="1"/>
     <col min="4" max="4" width="14.109375" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" customWidth="1"/>
     <col min="7" max="7" width="14.44140625" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="13.21875" customWidth="1"/>
-    <col min="11" max="11" width="16.44140625" customWidth="1"/>
-    <col min="15" max="15" width="6.44140625" customWidth="1"/>
-    <col min="16" max="17" width="8.77734375" customWidth="1"/>
-    <col min="18" max="18" width="6.109375" customWidth="1"/>
-    <col min="19" max="19" width="8.77734375" customWidth="1"/>
-    <col min="21" max="21" width="6.77734375" customWidth="1"/>
-    <col min="22" max="22" width="10.77734375" customWidth="1"/>
-    <col min="23" max="23" width="6.5546875" customWidth="1"/>
+    <col min="8" max="10" width="9.77734375" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" style="9" customWidth="1"/>
+    <col min="13" max="13" width="13.21875" customWidth="1"/>
+    <col min="14" max="14" width="16.44140625" customWidth="1"/>
+    <col min="18" max="18" width="6.44140625" customWidth="1"/>
+    <col min="19" max="20" width="8.77734375" customWidth="1"/>
+    <col min="21" max="21" width="6.109375" customWidth="1"/>
+    <col min="22" max="22" width="8.77734375" customWidth="1"/>
+    <col min="24" max="24" width="6.77734375" customWidth="1"/>
+    <col min="25" max="25" width="10.77734375" customWidth="1"/>
+    <col min="26" max="26" width="6.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="22" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" s="22" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="N1" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="O1" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="T1" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="V1" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="W1" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="U1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="W1" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="X1" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z1" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -772,21 +800,22 @@
         <v>2</v>
       </c>
       <c r="H2" s="2">
-        <f t="shared" ref="H2:H7" si="0">E2*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="7">
-        <f>SUM(H2:H13)</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <f t="shared" ref="K2:K7" si="0">E2*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="7">
+        <f>SUM(K2:K13)</f>
         <v>0.99975000000000003</v>
       </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="4">
-        <f>SUM(K2:K13)</f>
-        <v>1</v>
-      </c>
-      <c r="M2" s="3"/>
       <c r="N2" s="2">
         <v>0</v>
       </c>
@@ -810,15 +839,23 @@
         <f>SUM(T2:T13)</f>
         <v>1</v>
       </c>
-      <c r="V2" s="2">
-        <v>0</v>
-      </c>
-      <c r="W2" s="4">
-        <f>SUM(V2:V13)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V2" s="3"/>
+      <c r="W2" s="2">
+        <v>0</v>
+      </c>
+      <c r="X2" s="4">
+        <f>SUM(W2:W13)</f>
+        <v>1</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="4">
+        <f>SUM(Y2:Y13)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -839,15 +876,19 @@
         <v>4</v>
       </c>
       <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>7.5033333333333327E-2</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="3"/>
+      <c r="L3" s="8"/>
       <c r="N3" s="2">
         <v>0</v>
       </c>
@@ -862,12 +903,17 @@
         <v>0</v>
       </c>
       <c r="U3" s="4"/>
-      <c r="V3" s="2">
-        <v>0</v>
-      </c>
-      <c r="W3" s="4"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V3" s="3"/>
+      <c r="W3" s="2">
+        <v>0</v>
+      </c>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="4"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -887,17 +933,21 @@
         <v>6</v>
       </c>
       <c r="H4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>1.8483333333333334E-2</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="K4" s="2">
+      <c r="L4" s="8"/>
+      <c r="N4" s="2">
         <v>0.4</v>
-      </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="2">
-        <v>0</v>
       </c>
       <c r="O4" s="4"/>
       <c r="P4" s="3"/>
@@ -907,17 +957,22 @@
       <c r="R4" s="4"/>
       <c r="S4" s="3"/>
       <c r="T4" s="2">
+        <v>0</v>
+      </c>
+      <c r="U4" s="4"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="2">
         <v>0.3</v>
       </c>
-      <c r="U4" s="4"/>
-      <c r="V4" s="2">
-        <v>1</v>
-      </c>
-      <c r="W4" s="4"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X4" s="4"/>
+      <c r="Y4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="4"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B5" s="2">
         <v>0.68700000000000006</v>
@@ -935,17 +990,21 @@
         <v>6</v>
       </c>
       <c r="H5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>0.34998333333333337</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="3"/>
+      <c r="L5" s="8"/>
       <c r="N5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="5"/>
       <c r="P5" s="3"/>
@@ -955,15 +1014,20 @@
       <c r="R5" s="5"/>
       <c r="S5" s="3"/>
       <c r="T5" s="2">
+        <v>1</v>
+      </c>
+      <c r="U5" s="5"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="2">
         <v>0.7</v>
       </c>
-      <c r="U5" s="5"/>
-      <c r="V5" s="2">
-        <v>0</v>
-      </c>
-      <c r="W5" s="5"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X5" s="5"/>
+      <c r="Y5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="5"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -983,15 +1047,19 @@
         <v>6</v>
       </c>
       <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
         <f t="shared" si="0"/>
         <v>2.8583333333333336E-2</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="3"/>
+      <c r="L6" s="8"/>
       <c r="N6" s="2">
         <v>0</v>
       </c>
@@ -1006,12 +1074,17 @@
         <v>0</v>
       </c>
       <c r="U6" s="5"/>
-      <c r="V6" s="2">
-        <v>0</v>
-      </c>
-      <c r="W6" s="5"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V6" s="3"/>
+      <c r="W6" s="2">
+        <v>0</v>
+      </c>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="5"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1031,17 +1104,21 @@
         <v>6</v>
       </c>
       <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>1.4283333333333332E-2</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="K7" s="2">
+      <c r="L7" s="8"/>
+      <c r="N7" s="2">
         <v>0.2</v>
-      </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="2">
-        <v>0</v>
       </c>
       <c r="O7" s="5"/>
       <c r="P7" s="3"/>
@@ -1054,12 +1131,17 @@
         <v>0</v>
       </c>
       <c r="U7" s="5"/>
-      <c r="V7" s="2">
-        <v>0</v>
-      </c>
-      <c r="W7" s="5"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V7" s="3"/>
+      <c r="W7" s="2">
+        <v>0</v>
+      </c>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="5"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1080,12 +1162,16 @@
       <c r="H8" s="2">
         <v>0</v>
       </c>
-      <c r="I8" s="8"/>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
       <c r="K8" s="2">
         <v>0</v>
       </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="3"/>
+      <c r="L8" s="8"/>
       <c r="N8" s="2">
         <v>0</v>
       </c>
@@ -1100,12 +1186,17 @@
         <v>0</v>
       </c>
       <c r="U8" s="5"/>
-      <c r="V8" s="2">
-        <v>0</v>
-      </c>
-      <c r="W8" s="5"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V8" s="3"/>
+      <c r="W8" s="2">
+        <v>0</v>
+      </c>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="5"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1126,12 +1217,16 @@
       <c r="H9" s="2">
         <v>0</v>
       </c>
-      <c r="I9" s="8"/>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
       <c r="K9" s="2">
         <v>0</v>
       </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="3"/>
+      <c r="L9" s="8"/>
       <c r="N9" s="2">
         <v>0</v>
       </c>
@@ -1146,12 +1241,17 @@
         <v>0</v>
       </c>
       <c r="U9" s="5"/>
-      <c r="V9" s="2">
-        <v>0</v>
-      </c>
-      <c r="W9" s="5"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V9" s="3"/>
+      <c r="W9" s="2">
+        <v>0</v>
+      </c>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="5"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1172,12 +1272,16 @@
       <c r="H10" s="2">
         <v>0</v>
       </c>
-      <c r="I10" s="8"/>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
       <c r="K10" s="2">
         <v>0</v>
       </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="3"/>
+      <c r="L10" s="8"/>
       <c r="N10" s="2">
         <v>0</v>
       </c>
@@ -1192,12 +1296,17 @@
         <v>0</v>
       </c>
       <c r="U10" s="5"/>
-      <c r="V10" s="2">
-        <v>0</v>
-      </c>
-      <c r="W10" s="5"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V10" s="3"/>
+      <c r="W10" s="2">
+        <v>0</v>
+      </c>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="5"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1218,12 +1327,16 @@
       <c r="H11" s="2">
         <v>0</v>
       </c>
-      <c r="I11" s="8"/>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
       <c r="K11" s="2">
         <v>0</v>
       </c>
-      <c r="L11" s="5"/>
-      <c r="M11" s="3"/>
+      <c r="L11" s="8"/>
       <c r="N11" s="2">
         <v>0</v>
       </c>
@@ -1238,12 +1351,17 @@
         <v>0</v>
       </c>
       <c r="U11" s="5"/>
-      <c r="V11" s="2">
-        <v>0</v>
-      </c>
-      <c r="W11" s="5"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V11" s="3"/>
+      <c r="W11" s="2">
+        <v>0</v>
+      </c>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="5"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1263,17 +1381,21 @@
         <v>6</v>
       </c>
       <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
         <f>E12*0.5</f>
         <v>1.3383333333333334E-2</v>
       </c>
-      <c r="I12" s="8"/>
-      <c r="K12" s="2">
+      <c r="L12" s="8"/>
+      <c r="N12" s="2">
         <v>0.4</v>
-      </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="2">
-        <v>0</v>
       </c>
       <c r="O12" s="5"/>
       <c r="P12" s="3"/>
@@ -1286,14 +1408,19 @@
         <v>0</v>
       </c>
       <c r="U12" s="5"/>
-      <c r="V12" s="2">
-        <v>0</v>
-      </c>
-      <c r="W12" s="5"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V12" s="3"/>
+      <c r="W12" s="2">
+        <v>0</v>
+      </c>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="5"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -1302,12 +1429,18 @@
         <v>0</v>
       </c>
       <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
         <v>0.5</v>
       </c>
-      <c r="I13" s="8"/>
-      <c r="K13" s="2">
-        <v>0</v>
-      </c>
+      <c r="L13" s="8"/>
       <c r="N13" s="2">
         <v>0</v>
       </c>
@@ -1317,11 +1450,14 @@
       <c r="T13" s="2">
         <v>0</v>
       </c>
-      <c r="V13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>14</v>
       </c>
@@ -1346,21 +1482,22 @@
         <v>2</v>
       </c>
       <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
         <f>E14*0.5</f>
         <v>0</v>
       </c>
-      <c r="I14" s="7">
-        <f>SUM(H14:H25)</f>
-        <v>1</v>
-      </c>
-      <c r="K14" s="2">
-        <v>0</v>
-      </c>
-      <c r="L14" s="4">
+      <c r="L14" s="7">
         <f>SUM(K14:K25)</f>
         <v>1</v>
       </c>
-      <c r="M14" s="3"/>
       <c r="N14" s="2">
         <v>0</v>
       </c>
@@ -1384,15 +1521,23 @@
         <f>SUM(T14:T25)</f>
         <v>1</v>
       </c>
-      <c r="V14" s="2">
-        <v>0</v>
-      </c>
-      <c r="W14" s="4">
-        <f>SUM(V14:V25)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V14" s="3"/>
+      <c r="W14" s="2">
+        <v>0</v>
+      </c>
+      <c r="X14" s="4">
+        <f>SUM(W14:W25)</f>
+        <v>1</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="4">
+        <f>SUM(Y14:Y25)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
@@ -1402,20 +1547,24 @@
       <c r="C15" s="5"/>
       <c r="D15" s="3"/>
       <c r="E15" s="2">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="3"/>
       <c r="H15" s="2">
-        <f t="shared" ref="H15:H24" si="1">E15*0.5</f>
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="I15" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
       <c r="K15" s="2">
-        <v>0</v>
-      </c>
-      <c r="L15" s="5"/>
-      <c r="M15" s="3"/>
+        <f t="shared" ref="K15:K24" si="1">E15*0.5</f>
+        <v>0.25</v>
+      </c>
+      <c r="L15" s="8"/>
       <c r="N15" s="2">
         <v>0</v>
       </c>
@@ -1430,12 +1579,17 @@
         <v>0</v>
       </c>
       <c r="U15" s="5"/>
-      <c r="V15" s="2">
-        <v>0</v>
-      </c>
-      <c r="W15" s="5"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V15" s="3"/>
+      <c r="W15" s="2">
+        <v>0</v>
+      </c>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="5"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
@@ -1450,17 +1604,21 @@
       <c r="F16" s="5"/>
       <c r="G16" s="3"/>
       <c r="H16" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K16" s="2">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="I16" s="8"/>
-      <c r="K16" s="2">
+      <c r="L16" s="8"/>
+      <c r="N16" s="2">
         <v>0.4</v>
-      </c>
-      <c r="L16" s="5"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="2">
-        <v>0</v>
       </c>
       <c r="O16" s="5"/>
       <c r="P16" s="3"/>
@@ -1470,17 +1628,22 @@
       <c r="R16" s="5"/>
       <c r="S16" s="3"/>
       <c r="T16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16" s="5"/>
-      <c r="V16" s="2">
-        <v>1</v>
-      </c>
-      <c r="W16" s="5"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V16" s="3"/>
+      <c r="W16" s="2">
+        <v>1</v>
+      </c>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="5"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B17" s="2">
         <v>0.25</v>
@@ -1488,22 +1651,26 @@
       <c r="C17" s="5"/>
       <c r="D17" s="3"/>
       <c r="E17" s="2">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="3"/>
       <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
         <f t="shared" si="1"/>
-        <v>0.125</v>
-      </c>
-      <c r="I17" s="8"/>
-      <c r="K17" s="2">
-        <v>0</v>
-      </c>
-      <c r="L17" s="5"/>
-      <c r="M17" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="8"/>
       <c r="N17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="5"/>
       <c r="P17" s="3"/>
@@ -1513,15 +1680,20 @@
       <c r="R17" s="5"/>
       <c r="S17" s="3"/>
       <c r="T17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17" s="5"/>
-      <c r="V17" s="2">
-        <v>0</v>
-      </c>
-      <c r="W17" s="5"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V17" s="3"/>
+      <c r="W17" s="2">
+        <v>0</v>
+      </c>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="5"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
@@ -1536,15 +1708,19 @@
       <c r="F18" s="5"/>
       <c r="G18" s="3"/>
       <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I18" s="8"/>
-      <c r="K18" s="2">
-        <v>0</v>
-      </c>
-      <c r="L18" s="5"/>
-      <c r="M18" s="3"/>
+      <c r="L18" s="8"/>
       <c r="N18" s="2">
         <v>0</v>
       </c>
@@ -1559,12 +1735,17 @@
         <v>0</v>
       </c>
       <c r="U18" s="5"/>
-      <c r="V18" s="2">
-        <v>0</v>
-      </c>
-      <c r="W18" s="5"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V18" s="3"/>
+      <c r="W18" s="2">
+        <v>0</v>
+      </c>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="5"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
@@ -1579,17 +1760,21 @@
       <c r="F19" s="5"/>
       <c r="G19" s="3"/>
       <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I19" s="8"/>
-      <c r="K19" s="2">
+      <c r="L19" s="8"/>
+      <c r="N19" s="2">
         <v>0.2</v>
-      </c>
-      <c r="L19" s="5"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="2">
-        <v>0</v>
       </c>
       <c r="O19" s="5"/>
       <c r="P19" s="3"/>
@@ -1602,12 +1787,17 @@
         <v>0</v>
       </c>
       <c r="U19" s="5"/>
-      <c r="V19" s="2">
-        <v>0</v>
-      </c>
-      <c r="W19" s="5"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V19" s="3"/>
+      <c r="W19" s="2">
+        <v>0</v>
+      </c>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="5"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
@@ -1622,15 +1812,19 @@
       <c r="F20" s="5"/>
       <c r="G20" s="3"/>
       <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I20" s="8"/>
-      <c r="K20" s="2">
-        <v>0</v>
-      </c>
-      <c r="L20" s="5"/>
-      <c r="M20" s="3"/>
+      <c r="L20" s="8"/>
       <c r="N20" s="2">
         <v>0</v>
       </c>
@@ -1645,12 +1839,17 @@
         <v>0</v>
       </c>
       <c r="U20" s="5"/>
-      <c r="V20" s="2">
-        <v>0</v>
-      </c>
-      <c r="W20" s="5"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V20" s="3"/>
+      <c r="W20" s="2">
+        <v>0</v>
+      </c>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="5"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>20</v>
       </c>
@@ -1669,15 +1868,19 @@
         <v>2</v>
       </c>
       <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I21" s="8"/>
-      <c r="K21" s="2">
-        <v>0</v>
-      </c>
-      <c r="L21" s="5"/>
-      <c r="M21" s="3"/>
+      <c r="L21" s="8"/>
       <c r="N21" s="2">
         <v>0</v>
       </c>
@@ -1692,12 +1895,17 @@
         <v>0</v>
       </c>
       <c r="U21" s="5"/>
-      <c r="V21" s="2">
-        <v>0</v>
-      </c>
-      <c r="W21" s="5"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V21" s="3"/>
+      <c r="W21" s="2">
+        <v>0</v>
+      </c>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="5"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>21</v>
       </c>
@@ -1716,15 +1924,19 @@
         <v>2</v>
       </c>
       <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I22" s="8"/>
-      <c r="K22" s="2">
-        <v>0</v>
-      </c>
-      <c r="L22" s="5"/>
-      <c r="M22" s="3"/>
+      <c r="L22" s="8"/>
       <c r="N22" s="2">
         <v>0</v>
       </c>
@@ -1739,12 +1951,17 @@
         <v>0</v>
       </c>
       <c r="U22" s="5"/>
-      <c r="V22" s="2">
-        <v>0</v>
-      </c>
-      <c r="W22" s="5"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V22" s="3"/>
+      <c r="W22" s="2">
+        <v>0</v>
+      </c>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="5"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>22</v>
       </c>
@@ -1759,15 +1976,19 @@
       <c r="F23" s="5"/>
       <c r="G23" s="3"/>
       <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I23" s="8"/>
-      <c r="K23" s="2">
-        <v>0</v>
-      </c>
-      <c r="L23" s="5"/>
-      <c r="M23" s="3"/>
+      <c r="L23" s="8"/>
       <c r="N23" s="2">
         <v>0</v>
       </c>
@@ -1782,12 +2003,17 @@
         <v>0</v>
       </c>
       <c r="U23" s="5"/>
-      <c r="V23" s="2">
-        <v>0</v>
-      </c>
-      <c r="W23" s="5"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V23" s="3"/>
+      <c r="W23" s="2">
+        <v>0</v>
+      </c>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="5"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>23</v>
       </c>
@@ -1797,22 +2023,26 @@
       <c r="C24" s="5"/>
       <c r="D24" s="3"/>
       <c r="E24" s="2">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="3"/>
       <c r="H24" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K24" s="2">
         <f t="shared" si="1"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="I24" s="8"/>
-      <c r="K24" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="L24" s="8"/>
+      <c r="N24" s="2">
         <v>0.4</v>
-      </c>
-      <c r="L24" s="5"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="2">
-        <v>0</v>
       </c>
       <c r="O24" s="5"/>
       <c r="P24" s="3"/>
@@ -1825,14 +2055,19 @@
         <v>0</v>
       </c>
       <c r="U24" s="5"/>
-      <c r="V24" s="2">
-        <v>0</v>
-      </c>
-      <c r="W24" s="5"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V24" s="3"/>
+      <c r="W24" s="2">
+        <v>0</v>
+      </c>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="5"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B25" s="2">
         <v>0</v>
@@ -1841,12 +2076,18 @@
         <v>0</v>
       </c>
       <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2">
         <v>0.5</v>
       </c>
-      <c r="I25" s="8"/>
-      <c r="K25" s="2">
-        <v>0</v>
-      </c>
+      <c r="L25" s="8"/>
       <c r="N25" s="2">
         <v>0</v>
       </c>
@@ -1856,13 +2097,16 @@
       <c r="T25" s="2">
         <v>0</v>
       </c>
-      <c r="V25" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B26" s="2">
         <v>0</v>
@@ -1885,21 +2129,22 @@
         <v>2</v>
       </c>
       <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2">
         <f>E26*0.5</f>
         <v>0</v>
       </c>
-      <c r="I26" s="7">
-        <f>SUM(H26:H37)</f>
+      <c r="L26" s="7">
+        <f>SUM(K26:K37)</f>
         <v>0.99975000000000003</v>
       </c>
-      <c r="K26" s="2">
-        <v>0</v>
-      </c>
-      <c r="L26" s="4">
-        <f>SUM(K26:K37)</f>
-        <v>1</v>
-      </c>
-      <c r="M26" s="3"/>
       <c r="N26" s="2">
         <v>0</v>
       </c>
@@ -1923,17 +2168,25 @@
         <f>SUM(T26:T37)</f>
         <v>1</v>
       </c>
-      <c r="V26" s="2">
-        <v>0</v>
-      </c>
-      <c r="W26" s="4">
-        <f>SUM(V26:V37)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V26" s="3"/>
+      <c r="W26" s="2">
+        <v>0</v>
+      </c>
+      <c r="X26" s="4">
+        <f>SUM(W26:W37)</f>
+        <v>1</v>
+      </c>
+      <c r="Y26" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="4">
+        <f>SUM(Y26:Y37)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B27" s="2">
         <f>0.1371</f>
@@ -1948,15 +2201,19 @@
       <c r="F27" s="5"/>
       <c r="G27" s="3"/>
       <c r="H27" s="2">
-        <f t="shared" ref="H27:H36" si="2">E27*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2">
+        <f t="shared" ref="K27:K36" si="2">E27*0.5</f>
         <v>7.5033333333333327E-2</v>
       </c>
-      <c r="I27" s="8"/>
-      <c r="K27" s="2">
-        <v>0</v>
-      </c>
-      <c r="L27" s="5"/>
-      <c r="M27" s="3"/>
+      <c r="L27" s="8"/>
       <c r="N27" s="2">
         <v>0</v>
       </c>
@@ -1971,14 +2228,19 @@
         <v>0</v>
       </c>
       <c r="U27" s="5"/>
-      <c r="V27" s="2">
-        <v>0</v>
-      </c>
-      <c r="W27" s="5"/>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V27" s="3"/>
+      <c r="W27" s="2">
+        <v>0</v>
+      </c>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="5"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B28" s="2">
         <v>2.4E-2</v>
@@ -1992,17 +2254,21 @@
       <c r="F28" s="5"/>
       <c r="G28" s="3"/>
       <c r="H28" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K28" s="2">
         <f t="shared" si="2"/>
         <v>1.8483333333333334E-2</v>
       </c>
-      <c r="I28" s="8"/>
-      <c r="K28" s="2">
+      <c r="L28" s="8"/>
+      <c r="N28" s="2">
         <v>0.4</v>
-      </c>
-      <c r="L28" s="5"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="2">
-        <v>0</v>
       </c>
       <c r="O28" s="5"/>
       <c r="P28" s="3"/>
@@ -2012,17 +2278,22 @@
       <c r="R28" s="5"/>
       <c r="S28" s="3"/>
       <c r="T28" s="2">
+        <v>0</v>
+      </c>
+      <c r="U28" s="5"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="2">
         <v>0.3</v>
       </c>
-      <c r="U28" s="5"/>
-      <c r="V28" s="2">
-        <v>1</v>
-      </c>
-      <c r="W28" s="5"/>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X28" s="5"/>
+      <c r="Y28" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="5"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B29" s="2">
         <v>0.68700000000000006</v>
@@ -2036,17 +2307,21 @@
       <c r="F29" s="5"/>
       <c r="G29" s="3"/>
       <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2">
         <f t="shared" si="2"/>
         <v>0.34998333333333337</v>
       </c>
-      <c r="I29" s="8"/>
-      <c r="K29" s="2">
-        <v>0</v>
-      </c>
-      <c r="L29" s="5"/>
-      <c r="M29" s="3"/>
+      <c r="L29" s="8"/>
       <c r="N29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" s="5"/>
       <c r="P29" s="3"/>
@@ -2056,17 +2331,22 @@
       <c r="R29" s="5"/>
       <c r="S29" s="3"/>
       <c r="T29" s="2">
+        <v>1</v>
+      </c>
+      <c r="U29" s="5"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="2">
         <v>0.7</v>
       </c>
-      <c r="U29" s="5"/>
-      <c r="V29" s="2">
-        <v>0</v>
-      </c>
-      <c r="W29" s="5"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X29" s="5"/>
+      <c r="Y29" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="5"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B30" s="2">
         <v>4.4200000000000003E-2</v>
@@ -2080,15 +2360,19 @@
       <c r="F30" s="5"/>
       <c r="G30" s="3"/>
       <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2">
         <f t="shared" si="2"/>
         <v>2.8583333333333336E-2</v>
       </c>
-      <c r="I30" s="8"/>
-      <c r="K30" s="2">
-        <v>0</v>
-      </c>
-      <c r="L30" s="5"/>
-      <c r="M30" s="3"/>
+      <c r="L30" s="8"/>
       <c r="N30" s="2">
         <v>0</v>
       </c>
@@ -2103,14 +2387,19 @@
         <v>0</v>
       </c>
       <c r="U30" s="5"/>
-      <c r="V30" s="2">
-        <v>0</v>
-      </c>
-      <c r="W30" s="5"/>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V30" s="3"/>
+      <c r="W30" s="2">
+        <v>0</v>
+      </c>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="5"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B31" s="2">
         <v>1.5599999999999999E-2</v>
@@ -2124,17 +2413,21 @@
       <c r="F31" s="5"/>
       <c r="G31" s="3"/>
       <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0</v>
+      </c>
+      <c r="K31" s="2">
         <f t="shared" si="2"/>
         <v>1.4283333333333332E-2</v>
       </c>
-      <c r="I31" s="8"/>
-      <c r="K31" s="2">
+      <c r="L31" s="8"/>
+      <c r="N31" s="2">
         <v>0.2</v>
-      </c>
-      <c r="L31" s="5"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="2">
-        <v>0</v>
       </c>
       <c r="O31" s="5"/>
       <c r="P31" s="3"/>
@@ -2147,14 +2440,19 @@
         <v>0</v>
       </c>
       <c r="U31" s="5"/>
-      <c r="V31" s="2">
-        <v>0</v>
-      </c>
-      <c r="W31" s="5"/>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V31" s="3"/>
+      <c r="W31" s="2">
+        <v>0</v>
+      </c>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="5"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B32" s="2">
         <v>0</v>
@@ -2167,15 +2465,19 @@
       <c r="F32" s="5"/>
       <c r="G32" s="3"/>
       <c r="H32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0</v>
+      </c>
+      <c r="K32" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I32" s="8"/>
-      <c r="K32" s="2">
-        <v>0</v>
-      </c>
-      <c r="L32" s="5"/>
-      <c r="M32" s="3"/>
+      <c r="L32" s="8"/>
       <c r="N32" s="2">
         <v>0</v>
       </c>
@@ -2190,14 +2492,19 @@
         <v>0</v>
       </c>
       <c r="U32" s="5"/>
-      <c r="V32" s="2">
-        <v>0</v>
-      </c>
-      <c r="W32" s="5"/>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V32" s="3"/>
+      <c r="W32" s="2">
+        <v>0</v>
+      </c>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="5"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B33" s="2">
         <v>0</v>
@@ -2214,15 +2521,19 @@
         <v>2</v>
       </c>
       <c r="H33" s="2">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0</v>
+      </c>
+      <c r="K33" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I33" s="8"/>
-      <c r="K33" s="2">
-        <v>0</v>
-      </c>
-      <c r="L33" s="5"/>
-      <c r="M33" s="3"/>
+      <c r="L33" s="8"/>
       <c r="N33" s="2">
         <v>0</v>
       </c>
@@ -2237,14 +2548,19 @@
         <v>0</v>
       </c>
       <c r="U33" s="5"/>
-      <c r="V33" s="2">
-        <v>0</v>
-      </c>
-      <c r="W33" s="5"/>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V33" s="3"/>
+      <c r="W33" s="2">
+        <v>0</v>
+      </c>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="5"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B34" s="2">
         <v>0</v>
@@ -2261,15 +2577,19 @@
         <v>2</v>
       </c>
       <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0</v>
+      </c>
+      <c r="K34" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I34" s="8"/>
-      <c r="K34" s="2">
-        <v>0</v>
-      </c>
-      <c r="L34" s="5"/>
-      <c r="M34" s="3"/>
+      <c r="L34" s="8"/>
       <c r="N34" s="2">
         <v>0</v>
       </c>
@@ -2284,14 +2604,19 @@
         <v>0</v>
       </c>
       <c r="U34" s="5"/>
-      <c r="V34" s="2">
-        <v>0</v>
-      </c>
-      <c r="W34" s="5"/>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V34" s="3"/>
+      <c r="W34" s="2">
+        <v>0</v>
+      </c>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="5"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B35" s="2">
         <v>7.7799999999999994E-2</v>
@@ -2304,15 +2629,19 @@
       <c r="F35" s="5"/>
       <c r="G35" s="3"/>
       <c r="H35" s="2">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0</v>
+      </c>
+      <c r="K35" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I35" s="8"/>
-      <c r="K35" s="2">
-        <v>0</v>
-      </c>
-      <c r="L35" s="5"/>
-      <c r="M35" s="3"/>
+      <c r="L35" s="8"/>
       <c r="N35" s="2">
         <v>0</v>
       </c>
@@ -2327,14 +2656,19 @@
         <v>0</v>
       </c>
       <c r="U35" s="5"/>
-      <c r="V35" s="2">
-        <v>0</v>
-      </c>
-      <c r="W35" s="5"/>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V35" s="3"/>
+      <c r="W35" s="2">
+        <v>0</v>
+      </c>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="5"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B36" s="2">
         <v>1.38E-2</v>
@@ -2348,17 +2682,21 @@
       <c r="F36" s="5"/>
       <c r="G36" s="3"/>
       <c r="H36" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J36" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K36" s="2">
         <f t="shared" si="2"/>
         <v>1.3383333333333334E-2</v>
       </c>
-      <c r="I36" s="8"/>
-      <c r="K36" s="2">
+      <c r="L36" s="8"/>
+      <c r="N36" s="2">
         <v>0.4</v>
-      </c>
-      <c r="L36" s="5"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="2">
-        <v>0</v>
       </c>
       <c r="O36" s="5"/>
       <c r="P36" s="3"/>
@@ -2371,14 +2709,19 @@
         <v>0</v>
       </c>
       <c r="U36" s="5"/>
-      <c r="V36" s="2">
-        <v>0</v>
-      </c>
-      <c r="W36" s="5"/>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V36" s="3"/>
+      <c r="W36" s="2">
+        <v>0</v>
+      </c>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="5"/>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B37" s="2">
         <v>0</v>
@@ -2387,12 +2730,18 @@
         <v>0</v>
       </c>
       <c r="H37" s="2">
+        <v>0</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0</v>
+      </c>
+      <c r="K37" s="2">
         <v>0.5</v>
       </c>
-      <c r="I37" s="8"/>
-      <c r="K37" s="2">
-        <v>0</v>
-      </c>
+      <c r="L37" s="8"/>
       <c r="N37" s="2">
         <v>0</v>
       </c>
@@ -2402,12 +2751,15 @@
       <c r="T37" s="2">
         <v>0</v>
       </c>
-      <c r="V37" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="I38" s="8"/>
+      <c r="W37" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="L38" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
